--- a/medicine/Mort/Cimetière_de_Novodievitchi_(Saint-Pétersbourg)/Cimetière_de_Novodievitchi_(Saint-Pétersbourg).xlsx
+++ b/medicine/Mort/Cimetière_de_Novodievitchi_(Saint-Pétersbourg)/Cimetière_de_Novodievitchi_(Saint-Pétersbourg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi_(Saint-P%C3%A9tersbourg)</t>
+          <t>Cimetière_de_Novodievitchi_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Novodievitchi[1] de Saint-Pétersbourg (en russe : Новодевичье кладбище) se situe au no 100 de la perspective Moskovski.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Novodievitchi de Saint-Pétersbourg (en russe : Новодевичье кладбище) se situe au no 100 de la perspective Moskovski.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi_(Saint-P%C3%A9tersbourg)</t>
+          <t>Cimetière_de_Novodievitchi_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été ouvert en 1850 et les inhumations se sont poursuivies jusque dans les années 1930. 
 Après la Révolution d'Octobre, de nombreux monuments et chapelles funéraires furent détruits ou endommagés.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi_(Saint-P%C3%A9tersbourg)</t>
+          <t>Cimetière_de_Novodievitchi_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités inhumées au cimetière de Novodevitchi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Léon Benois (1856-1928), architecte
 Serge Botkine (1832-1889), académicien, professeur de médecine
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Novodievitchi_(Saint-P%C3%A9tersbourg)</t>
+          <t>Cimetière_de_Novodievitchi_(Saint-Pétersbourg)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe du docteur Botkine
